--- a/workfile/锐安项目文档/数据源.xlsx
+++ b/workfile/锐安项目文档/数据源.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyongwei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\workspace\workfile\锐安项目文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="480" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="720" yWindow="480" windowWidth="28800" windowHeight="16425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="系统网址" sheetId="8" r:id="rId1"/>
@@ -21,11 +21,8 @@
     <sheet name="采购管理" sheetId="7" r:id="rId7"/>
     <sheet name="财务类报表" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -3334,7 +3331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3542,12 +3539,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3558,20 +3549,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3588,6 +3570,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,6 +3642,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3915,58 +3915,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3984,19 +3984,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
     <col min="6" max="6" width="62.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4022,28 +4022,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -4054,13 +4054,13 @@
       <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -4071,109 +4071,109 @@
       <c r="D4" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="13"/>
       <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" t="s">
         <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="13"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="13"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="13"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" t="s">
         <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4194,19 +4194,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -4232,17 +4232,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F2" t="s">
@@ -4251,11 +4251,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -4263,9 +4263,9 @@
       <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -4273,9 +4273,9 @@
       <c r="G4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4283,9 +4283,9 @@
       <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4293,19 +4293,19 @@
       <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.95" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F7" t="s">
@@ -4314,11 +4314,11 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="21.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>95</v>
@@ -4329,15 +4329,15 @@
       <c r="D8" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="24" t="s">
         <v>111</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>97</v>
@@ -4348,13 +4348,13 @@
       <c r="D9" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="24"/>
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>96</v>
@@ -4365,13 +4365,13 @@
       <c r="D10" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="24"/>
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.95" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>98</v>
@@ -4382,13 +4382,13 @@
       <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="24"/>
       <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>99</v>
@@ -4399,15 +4399,15 @@
       <c r="D12" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="24" t="s">
         <v>110</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.95" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>100</v>
@@ -4418,13 +4418,13 @@
       <c r="D13" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="24"/>
       <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>101</v>
@@ -4435,13 +4435,13 @@
       <c r="D14" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="24"/>
       <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.95" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>102</v>
@@ -4452,13 +4452,13 @@
       <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="24"/>
       <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.95" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -4476,7 +4476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
     </row>
@@ -4500,18 +4500,18 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.375" customWidth="1"/>
     <col min="6" max="6" width="66.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -4549,42 +4549,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="21.95" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="21.95" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>118</v>
       </c>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="21.95" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>122</v>
       </c>
       <c r="F6" t="s">
@@ -4594,7 +4594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="21.95" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="21.95" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="21.95" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>89</v>
       </c>
@@ -4631,14 +4631,14 @@
       <c r="D9" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="24" t="s">
         <v>149</v>
       </c>
       <c r="F9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="21.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>146</v>
@@ -4649,12 +4649,12 @@
       <c r="D10" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="24"/>
       <c r="F10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21.95" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
@@ -4667,14 +4667,14 @@
       <c r="D11" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="25" t="s">
         <v>155</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>151</v>
@@ -4685,9 +4685,9 @@
       <c r="D12" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.95" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>153</v>
@@ -4698,9 +4698,9 @@
       <c r="D13" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
@@ -4713,11 +4713,11 @@
       <c r="D14" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="21.95" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>152</v>
@@ -4728,13 +4728,13 @@
       <c r="D15" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.95" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C16" t="s">
@@ -4747,7 +4747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="21.95" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>166</v>
@@ -4758,11 +4758,11 @@
       <c r="D17" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="21.95" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>167</v>
@@ -4773,9 +4773,9 @@
       <c r="D18" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.95" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>168</v>
@@ -4786,10 +4786,10 @@
       <c r="D19" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.95" customHeight="1">
+      <c r="B20" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C20" t="s">
@@ -4798,7 +4798,7 @@
       <c r="D20" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4820,19 +4820,19 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>64</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="D2" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="26" t="s">
         <v>198</v>
       </c>
       <c r="F2" t="s">
@@ -4881,8 +4881,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -4894,9 +4894,9 @@
       <c r="D3" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>182</v>
@@ -4907,9 +4907,9 @@
       <c r="D4" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.95" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>183</v>
@@ -4920,9 +4920,9 @@
       <c r="D5" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.95" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>184</v>
@@ -4933,9 +4933,9 @@
       <c r="D6" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.95" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>185</v>
@@ -4946,9 +4946,9 @@
       <c r="D7" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>66</v>
@@ -4959,11 +4959,11 @@
       <c r="D8" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="60.95" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C9" t="s">
@@ -4972,12 +4972,12 @@
       <c r="D9" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="26"/>
+      <c r="G9" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="21.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>178</v>
@@ -4988,15 +4988,15 @@
       <c r="D10" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="307" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="306.95" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="26"/>
+      <c r="G11" s="17" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5013,22 +5013,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21.75">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>132</v>
       </c>
@@ -5077,37 +5077,37 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="21.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>140</v>
@@ -5116,82 +5116,82 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="H9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>141</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="F15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>71</v>
       </c>
@@ -5199,403 +5199,403 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="21.95" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="21.95" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="21.95" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="21.95" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="21.95" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="21.95" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="21.95" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="21.95" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="21.95" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="21.95" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="21.95" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="21.95" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="21.95" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="21.95" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="21.95" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="21.95" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="20" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26" t="s">
+    <row r="48" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="20" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="26" t="s">
+    <row r="49" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="20" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="26" t="s">
+    <row r="50" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="26" t="s">
+    <row r="51" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A51" s="19"/>
+      <c r="B51" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A52" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+    <row r="53" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A53" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="26" t="s">
+    <row r="54" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="26" t="s">
+    <row r="55" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A55" s="19"/>
+      <c r="B55" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="26" t="s">
+    <row r="56" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="26" t="s">
+    <row r="57" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A57" s="19"/>
+      <c r="B57" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A58" s="19"/>
+      <c r="B58" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="26" t="s">
+    <row r="59" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A59" s="19"/>
+      <c r="B59" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
+    <row r="60" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A60" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="20" t="s">
         <v>255</v>
       </c>
       <c r="G60" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="26" t="s">
+    <row r="61" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A61" s="19"/>
+      <c r="B61" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="20" t="s">
         <v>255</v>
       </c>
       <c r="G61" s="27"/>
     </row>
-    <row r="62" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="26" t="s">
+    <row r="62" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A62" s="19"/>
+      <c r="B62" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="20" t="s">
         <v>255</v>
       </c>
       <c r="G62" s="27"/>
     </row>
-    <row r="63" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
+    <row r="63" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A63" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="26" t="s">
+    <row r="64" spans="1:7" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A64" s="19"/>
+      <c r="B64" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
+    <row r="65" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A65" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="26" t="s">
+    <row r="66" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A66" s="19"/>
+      <c r="B66" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="26" t="s">
+    <row r="67" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A67" s="19"/>
+      <c r="B67" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="26" t="s">
+    <row r="68" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A68" s="19"/>
+      <c r="B68" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="25" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="26" t="s">
+    <row r="69" spans="1:6" s="20" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A69" s="19"/>
+      <c r="B69" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="21.95" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="21.95" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="18">
       <c r="A72" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="B74" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>290</v>
       </c>
@@ -5622,17 +5622,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.75">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -5674,11 +5674,11 @@
       <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>58</v>
@@ -5692,10 +5692,10 @@
       <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5707,15 +5707,15 @@
       <c r="D4" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="26" t="s">
         <v>210</v>
       </c>
       <c r="F4" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>202</v>
@@ -5726,13 +5726,13 @@
       <c r="D5" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="26"/>
       <c r="F5" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>206</v>
@@ -5743,17 +5743,17 @@
       <c r="D6" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="F6" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>211</v>
       </c>
       <c r="C7" t="s">
@@ -5765,9 +5765,9 @@
       <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>212</v>
@@ -5801,33 +5801,33 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -5835,32 +5835,32 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>278</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>280</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="C18" t="s">
         <v>15</v>
       </c>
